--- a/OnBoard/output/trust/catch/Catch_Trust_51.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_51.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.017</v>
+        <v>0.075</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,19 +478,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Blennius ocellaris</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>0.027</v>
       </c>
       <c r="H3">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -519,19 +519,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eledone moschata</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.9</v>
+        <v>0.024</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,19 +560,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Galeodea echinophora</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>GALEECH</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G5">
-        <v>0.3</v>
+        <v>0.098</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,19 +601,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Citharus linguatula</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.418</v>
+        <v>0.041</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -622,7 +622,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -642,16 +642,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Eledone moschata</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="G7">
-        <v>0.032</v>
+        <v>0.229</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -663,7 +663,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -683,19 +683,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Merlangius merlangus</t>
+          <t>Galeodea echinophora</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GADUMER</t>
+          <t>GALEECH</t>
         </is>
       </c>
       <c r="G8">
-        <v>0.082</v>
+        <v>0.382</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -724,19 +724,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nephrops norvegicus</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NEPRNOR</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G9">
-        <v>0.137</v>
+        <v>0.163</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -745,7 +745,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pecten jacobaeus</t>
+          <t>Lophius budegassa</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="G10">
-        <v>0.377</v>
+        <v>0.148</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -786,7 +786,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -806,19 +806,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G11">
-        <v>0.979</v>
+        <v>0.316</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -827,7 +827,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -847,19 +847,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.796</v>
+        <v>0.023</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -888,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Mullus surmuletus</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MULLSUR</t>
         </is>
       </c>
       <c r="G13">
-        <v>1.366</v>
+        <v>0.104</v>
       </c>
       <c r="H13">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -909,7 +909,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -924,24 +924,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aequipecten opercularis</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.008999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -950,7 +950,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -965,24 +965,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Pecten jacobaeus</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="G15">
-        <v>2.905</v>
+        <v>2.141</v>
       </c>
       <c r="H15">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -991,7 +991,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1006,24 +1006,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G16">
-        <v>0.031</v>
+        <v>1.062</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1032,7 +1032,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1047,21 +1047,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Deltentosteus(Gobius )quadrimaculatus</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>GOBIQUA</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="G17">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1088,24 +1088,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.24</v>
+        <v>1.302</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1114,7 +1114,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1129,24 +1129,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.032</v>
+        <v>0.157</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1155,7 +1155,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1170,24 +1170,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lophius budegassa</t>
+          <t>Trachinus draco</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="G20">
-        <v>0.569</v>
+        <v>0.126</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1196,7 +1196,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1211,21 +1211,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Trigloporus lastoviza</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1237,7 +1237,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1257,19 +1257,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.546</v>
+        <v>0.058</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1278,7 +1278,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1298,19 +1298,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pecten jacobaeus</t>
+          <t>Arnoglossus thori</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.057</v>
+        <v>0.131</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1339,16 +1339,16 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.206</v>
+        <v>0.015</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1360,7 +1360,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1380,19 +1380,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G25">
-        <v>1.165</v>
+        <v>0.208</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1401,7 +1401,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1421,28 +1421,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Antalis inaequicostata</t>
+          <t>Eledone moschata</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DENTINA</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.002</v>
+        <v>0.229</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1462,28 +1462,28 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Aspidosiphon muelleri muelleri</t>
+          <t>Galeodea echinophora</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ASPIMUE</t>
+          <t>GALEECH</t>
         </is>
       </c>
       <c r="G27">
-        <v>1.147</v>
+        <v>0.288</v>
       </c>
       <c r="H27">
-        <v>1111</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1503,28 +1503,28 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.147</v>
+        <v>0.177</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1544,28 +1544,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Lepidotrigla cavillone</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.054</v>
+        <v>0.008</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1585,28 +1585,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Coralligenous concretions</t>
+          <t>Lesueurigobius suerii</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CORACON</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.043</v>
+        <v>0.002</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1626,28 +1626,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fusinus rostratus</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FUSIROS</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.013</v>
+        <v>0.348</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I31">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1667,28 +1667,28 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hiatella arctica</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>HIATARC</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.001</v>
+        <v>0.195</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1708,28 +1708,28 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Microchirus ocellatus</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.037</v>
+        <v>0.041</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1749,28 +1749,28 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nereididae nd</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NEREIDI</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.001</v>
+        <v>0.196</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1790,28 +1790,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ocnus planci (=Cucumaria planci)</t>
+          <t>Pecten jacobaeus</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>OCNUPLA</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.19</v>
+        <v>2.061</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I35">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1831,28 +1831,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ophiothrix fragilis</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>OPHIFRA</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.021</v>
+        <v>0.349</v>
       </c>
       <c r="H36">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1872,28 +1872,28 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.14</v>
+        <v>0.011</v>
       </c>
       <c r="H37">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1913,28 +1913,28 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Porifera nd</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PORIFND</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.027</v>
+        <v>1.224</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I38">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1954,28 +1954,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G39">
-        <v>1.156</v>
+        <v>0.109</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1995,28 +1995,28 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Thyone fusus</t>
+          <t>Trisopterus minutus capelanus</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>THYOFUS</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.002</v>
+        <v>0.044</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>34.02508771929825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2036,28 +2036,28 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trachythyone tergestina</t>
+          <t>Acanthocardia tuberculata</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TRACTER</t>
+          <t>ACANTUB</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.019</v>
+        <v>0.002</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>34.02508771929825</v>
+        <v>34.2421052631579</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2077,28 +2077,28 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Turritella communis</t>
+          <t>Aequipecten opercularis</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TURRCOM</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.518</v>
+        <v>0.371</v>
       </c>
       <c r="H42">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="I42">
-        <v>34.02508771929825</v>
+        <v>34.2421052631579</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Virgularia mirabilis</t>
+          <t>Anadara transversa</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>VIRGMIR</t>
+          <t>ANADTRA</t>
         </is>
       </c>
       <c r="G43">
@@ -2133,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>34.02508771929825</v>
+        <v>34.2421052631579</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2159,22 +2159,1457 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>Anapagurus bicorniger</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ANAPBIC</t>
+        </is>
+      </c>
+      <c r="G44">
+        <v>0.001</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Anomia ephippium</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ANOMEPH</t>
+        </is>
+      </c>
+      <c r="G45">
+        <v>0.008</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Antalis inaequicostata</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>DENTINA</t>
+        </is>
+      </c>
+      <c r="G46">
+        <v>0.01</v>
+      </c>
+      <c r="H46">
+        <v>67</v>
+      </c>
+      <c r="I46">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Aporrhais pespelecani</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>APORPES</t>
+        </is>
+      </c>
+      <c r="G47">
+        <v>0.006</v>
+      </c>
+      <c r="H47">
+        <v>27</v>
+      </c>
+      <c r="I47">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Ascidiacea nd</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ASCIDND</t>
+        </is>
+      </c>
+      <c r="G48">
+        <v>0.06</v>
+      </c>
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Aspidosiphon muelleri muelleri</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ASPIMUE</t>
+        </is>
+      </c>
+      <c r="G49">
+        <v>0.001</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Astropecten irregularis</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ASTRIRR</t>
+        </is>
+      </c>
+      <c r="G50">
+        <v>0.106</v>
+      </c>
+      <c r="H50">
+        <v>17</v>
+      </c>
+      <c r="I50">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Biological discard</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>BIOLDIS</t>
+        </is>
+      </c>
+      <c r="G51">
+        <v>1.068</v>
+      </c>
+      <c r="H51">
+        <v>-1</v>
+      </c>
+      <c r="I51">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bolinus brandaris</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>MUREBRA</t>
+        </is>
+      </c>
+      <c r="G52">
+        <v>0.233</v>
+      </c>
+      <c r="H52">
+        <v>16</v>
+      </c>
+      <c r="I52">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Calliostoma Zizyphinum</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CALLZIZ</t>
+        </is>
+      </c>
+      <c r="G53">
+        <v>0.006</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Chamelea gallina</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>CHAMGAL</t>
+        </is>
+      </c>
+      <c r="G54">
+        <v>0.001</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Coralligenous concretions</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>CORACON</t>
+        </is>
+      </c>
+      <c r="G55">
+        <v>0.132</v>
+      </c>
+      <c r="H55">
+        <v>-1</v>
+      </c>
+      <c r="I55">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Corbula gibba</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CORBGIB</t>
+        </is>
+      </c>
+      <c r="G56">
+        <v>0.057</v>
+      </c>
+      <c r="H56">
+        <v>407</v>
+      </c>
+      <c r="I56">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Fusinus rostratus</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>FUSIROS</t>
+        </is>
+      </c>
+      <c r="G57">
+        <v>0.034</v>
+      </c>
+      <c r="H57">
+        <v>13</v>
+      </c>
+      <c r="I57">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Hiatella arctica</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>HIATARC</t>
+        </is>
+      </c>
+      <c r="G58">
+        <v>0.001</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Inachus dorsettensis</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>INACDOR</t>
+        </is>
+      </c>
+      <c r="G59">
+        <v>0.001</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Liocarcinus depurator</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="G60">
+        <v>0.102</v>
+      </c>
+      <c r="H60">
+        <v>14</v>
+      </c>
+      <c r="I60">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Liocarcinus maculatus</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>MCPIMAC</t>
+        </is>
+      </c>
+      <c r="G61">
+        <v>0.002</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Medorippe lanata</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>MEDOLAN</t>
+        </is>
+      </c>
+      <c r="G62">
+        <v>0.027</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Nassarius lima</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NASSLIM</t>
+        </is>
+      </c>
+      <c r="G63">
+        <v>0.001</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Nassarius nitidus</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NASSNIT</t>
+        </is>
+      </c>
+      <c r="G64">
+        <v>0.001</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Nucula nitidosa</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NUCUNIT</t>
+        </is>
+      </c>
+      <c r="G65">
+        <v>0.006</v>
+      </c>
+      <c r="H65">
+        <v>9</v>
+      </c>
+      <c r="I65">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Nuculana pella</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NUCUPEL</t>
+        </is>
+      </c>
+      <c r="G66">
+        <v>0.001</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Ocnus planci (=Cucumaria planci)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>OCNUPLA</t>
+        </is>
+      </c>
+      <c r="G67">
+        <v>0.076</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Ophiothrix sp.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>OPHIOSP</t>
+        </is>
+      </c>
+      <c r="G68">
+        <v>0.544</v>
+      </c>
+      <c r="H68">
+        <v>406</v>
+      </c>
+      <c r="I68">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Ophiura ophiura</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>OPHIOPH</t>
+        </is>
+      </c>
+      <c r="G69">
+        <v>0.118</v>
+      </c>
+      <c r="H69">
+        <v>120</v>
+      </c>
+      <c r="I69">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Pagurus cuanensis</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>PAGUCUA</t>
+        </is>
+      </c>
+      <c r="G70">
+        <v>0.003</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Porifera nd</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>PORIFND</t>
+        </is>
+      </c>
+      <c r="G71">
+        <v>0.014</v>
+      </c>
+      <c r="H71">
+        <v>-1</v>
+      </c>
+      <c r="I71">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Psammechinus microtuberculatus</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>PSAMMIC</t>
+        </is>
+      </c>
+      <c r="G72">
+        <v>0.187</v>
+      </c>
+      <c r="H72">
+        <v>82</v>
+      </c>
+      <c r="I72">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Schizaster canaliferus</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>SCHICAN</t>
+        </is>
+      </c>
+      <c r="G73">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Shells NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>SHELLS</t>
+        </is>
+      </c>
+      <c r="G74">
+        <v>0.948</v>
+      </c>
+      <c r="H74">
+        <v>-1</v>
+      </c>
+      <c r="I74">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Sipunculidae nd</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>SIPUNND</t>
+        </is>
+      </c>
+      <c r="G75">
+        <v>0.373</v>
+      </c>
+      <c r="H75">
+        <v>213</v>
+      </c>
+      <c r="I75">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Tethya aurantium</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>TETHAUR</t>
+        </is>
+      </c>
+      <c r="G76">
+        <v>0.065</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Timoclea ovata</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>TIMOOVA</t>
+        </is>
+      </c>
+      <c r="G77">
+        <v>0.001</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Turritella communis</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>TURRCOM</t>
+        </is>
+      </c>
+      <c r="G78">
+        <v>0.031</v>
+      </c>
+      <c r="H78">
+        <v>44</v>
+      </c>
+      <c r="I78">
+        <v>34.2421052631579</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>Wood NA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>WOOD</t>
         </is>
       </c>
-      <c r="G44">
-        <v>0.105</v>
-      </c>
-      <c r="H44">
+      <c r="G79">
+        <v>0.061</v>
+      </c>
+      <c r="H79">
         <v>-1</v>
       </c>
-      <c r="I44">
-        <v>34.02508771929825</v>
+      <c r="I79">
+        <v>34.2421052631579</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_51.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_51.xlsx
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="42">
@@ -2092,7 +2092,7 @@
         <v>53</v>
       </c>
       <c r="I42">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="43">
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="44">
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="45">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="46">
@@ -2256,7 +2256,7 @@
         <v>67</v>
       </c>
       <c r="I46">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="47">
@@ -2297,7 +2297,7 @@
         <v>27</v>
       </c>
       <c r="I47">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="48">
@@ -2338,7 +2338,7 @@
         <v>14</v>
       </c>
       <c r="I48">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="49">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="50">
@@ -2420,7 +2420,7 @@
         <v>17</v>
       </c>
       <c r="I50">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="51">
@@ -2461,7 +2461,7 @@
         <v>-1</v>
       </c>
       <c r="I51">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="52">
@@ -2502,7 +2502,7 @@
         <v>16</v>
       </c>
       <c r="I52">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="53">
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="54">
@@ -2584,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="I54">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="55">
@@ -2625,7 +2625,7 @@
         <v>-1</v>
       </c>
       <c r="I55">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="56">
@@ -2666,7 +2666,7 @@
         <v>407</v>
       </c>
       <c r="I56">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="57">
@@ -2707,7 +2707,7 @@
         <v>13</v>
       </c>
       <c r="I57">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="58">
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="I58">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="59">
@@ -2789,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="60">
@@ -2830,7 +2830,7 @@
         <v>14</v>
       </c>
       <c r="I60">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="61">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="62">
@@ -2912,7 +2912,7 @@
         <v>4</v>
       </c>
       <c r="I62">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="63">
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="64">
@@ -2994,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="I64">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="65">
@@ -3035,7 +3035,7 @@
         <v>9</v>
       </c>
       <c r="I65">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="66">
@@ -3076,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="I66">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="67">
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="68">
@@ -3158,7 +3158,7 @@
         <v>406</v>
       </c>
       <c r="I68">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="69">
@@ -3199,7 +3199,7 @@
         <v>120</v>
       </c>
       <c r="I69">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="70">
@@ -3240,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="I70">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="71">
@@ -3281,7 +3281,7 @@
         <v>-1</v>
       </c>
       <c r="I71">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="72">
@@ -3322,7 +3322,7 @@
         <v>82</v>
       </c>
       <c r="I72">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="73">
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="74">
@@ -3404,7 +3404,7 @@
         <v>-1</v>
       </c>
       <c r="I74">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="75">
@@ -3445,7 +3445,7 @@
         <v>213</v>
       </c>
       <c r="I75">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="76">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="I76">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="77">
@@ -3527,7 +3527,7 @@
         <v>4</v>
       </c>
       <c r="I77">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="78">
@@ -3568,7 +3568,7 @@
         <v>44</v>
       </c>
       <c r="I78">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
     <row r="79">
@@ -3609,7 +3609,7 @@
         <v>-1</v>
       </c>
       <c r="I79">
-        <v>34.2421052631579</v>
+        <v>33.09090909090909</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_51.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_51.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.075</v>
+        <v>0.035</v>
       </c>
       <c r="H2">
         <v>6</v>
